--- a/docs/risikomatrix.xlsx
+++ b/docs/risikomatrix.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\the-real-docs\projects\rafisa\QuickNote\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>ID_Nr</t>
   </si>
@@ -123,6 +123,24 @@
   </si>
   <si>
     <t>Timothy Hill</t>
+  </si>
+  <si>
+    <t>Erfasst</t>
+  </si>
+  <si>
+    <t>21.10.2017</t>
+  </si>
+  <si>
+    <t>06.11.2017</t>
+  </si>
+  <si>
+    <t>Aufgaben werden nicht klar Kommuniziert</t>
+  </si>
+  <si>
+    <t>Meilensteine</t>
+  </si>
+  <si>
+    <t>Teamsitzung</t>
   </si>
 </sst>
 </file>
@@ -453,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J12"/>
+  <dimension ref="A2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,117 +490,126 @@
     <col min="10" max="10" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="222.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="250.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1">
-        <v>42673</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1">
+        <v>43045</v>
+      </c>
+      <c r="K3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
         <v>1.2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1">
-        <v>42673</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1">
+        <v>43045</v>
+      </c>
+      <c r="K4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
         <v>1.3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -590,122 +617,167 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1">
-        <v>42673</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1">
+        <v>43045</v>
+      </c>
+      <c r="K5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
         <v>1.4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1">
-        <v>42673</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1">
+        <v>43045</v>
+      </c>
+      <c r="K6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
         <v>1.5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="1">
-        <v>42673</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1">
+        <v>43045</v>
+      </c>
+      <c r="K7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
         <v>1.6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="1">
-        <v>42673</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1">
+        <v>43045</v>
+      </c>
+      <c r="K8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>1.7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <f>F9*G9</f>
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1">
+        <v>43045</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I12" s="1"/>
     </row>
   </sheetData>
